--- a/SCH-STH/Impact assessments/Burkina Faso/nov 2023/bf_202311_sch_impact_assessment_4_resultat_urines.xlsx
+++ b/SCH-STH/Impact assessments/Burkina Faso/nov 2023/bf_202311_sch_impact_assessment_4_resultat_urines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Burkina Faso\nov 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31D7854-A9C4-4944-8005-3604458D6528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00AF8C5-DB3D-40D5-AE35-DCDA7DEA4FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="166">
   <si>
     <t>type</t>
   </si>
@@ -327,12 +327,6 @@
     <t>Nombre d'œufs pour la lame (œufs/10ml)</t>
   </si>
   <si>
-    <t>bf_202311_sch_impact_assessment_4_resultat_urines</t>
-  </si>
-  <si>
-    <t>(BF - Novembre 2023) impact schisto - 4. Formulaire Results _Urines</t>
-  </si>
-  <si>
     <t>Centre-Est</t>
   </si>
   <si>
@@ -351,9 +345,6 @@
     <t>Boussé</t>
   </si>
   <si>
-    <t>Ziniare</t>
-  </si>
-  <si>
     <t>Ziniaré</t>
   </si>
   <si>
@@ -523,13 +514,19 @@
   </si>
   <si>
     <t>Zoungou</t>
+  </si>
+  <si>
+    <t>bf_202311_sch_impact_assessment_4_resultat_urines_v2</t>
+  </si>
+  <si>
+    <t>(BF - Novembre 2023) impact schisto - 4. Formulaire Results Urines V2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -621,6 +618,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -681,7 +685,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -730,6 +734,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -996,7 +1001,7 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.85546875" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
@@ -1011,7 +1016,7 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="18.75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1055,7 +1060,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="15.75">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -1069,7 +1074,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15.75">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
@@ -1083,7 +1088,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="30">
       <c r="A4" s="4" t="s">
         <v>21</v>
       </c>
@@ -1108,7 +1113,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="30">
       <c r="A5" s="5" t="s">
         <v>25</v>
       </c>
@@ -1130,7 +1135,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="15.75">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1148,7 +1153,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="47.25">
       <c r="A7" s="5" t="s">
         <v>32</v>
       </c>
@@ -1172,7 +1177,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="5" t="s">
         <v>32</v>
       </c>
@@ -1192,7 +1197,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="45">
       <c r="A9" s="5" t="s">
         <v>32</v>
       </c>
@@ -1219,7 +1224,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -1233,7 +1238,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="30">
       <c r="A11" s="5" t="s">
         <v>47</v>
       </c>
@@ -1250,7 +1255,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1267,7 +1272,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" s="5" t="s">
         <v>53</v>
       </c>
@@ -1284,7 +1289,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -1301,7 +1306,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" s="5" t="s">
         <v>47</v>
       </c>
@@ -1318,7 +1323,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16" s="5" t="s">
         <v>60</v>
       </c>
@@ -1330,7 +1335,7 @@
       </c>
       <c r="H16" s="11"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -1338,7 +1343,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="5" t="s">
         <v>65</v>
       </c>
@@ -1346,7 +1351,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="5"/>
     </row>
   </sheetData>
@@ -1359,11 +1364,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD88"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.7109375" bestFit="1" customWidth="1"/>
@@ -1371,7 +1376,7 @@
     <col min="5" max="5" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75">
       <c r="A1" s="12" t="s">
         <v>67</v>
       </c>
@@ -1391,7 +1396,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -1402,7 +1407,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -1413,7 +1418,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -1424,7 +1429,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -1435,7 +1440,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -1446,7 +1451,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -1457,7 +1462,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>71</v>
       </c>
@@ -1468,7 +1473,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -1479,8 +1484,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="15" customFormat="1"/>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>80</v>
       </c>
@@ -1491,7 +1496,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>80</v>
       </c>
@@ -1502,10 +1507,10 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="15" customFormat="1">
       <c r="A13" s="16"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>85</v>
       </c>
@@ -1516,7 +1521,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>85</v>
       </c>
@@ -1527,7 +1532,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>85</v>
       </c>
@@ -1538,7 +1543,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>85</v>
       </c>
@@ -1549,7 +1554,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -1560,7 +1565,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>85</v>
       </c>
@@ -1571,1108 +1576,1098 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="16"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="14" t="s">
         <v>68</v>
       </c>
       <c r="B21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="14" t="s">
         <v>68</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="21" customFormat="1">
       <c r="A23" s="20"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15.75">
       <c r="A24" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B24" t="s">
-        <v>105</v>
-      </c>
-      <c r="C24" t="s">
-        <v>105</v>
+      <c r="B24" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="D24" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="14" t="s">
         <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D25" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="14" t="s">
         <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C26" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="14" t="s">
         <v>69</v>
       </c>
       <c r="B27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="14" t="s">
         <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="14" t="s">
         <v>69</v>
       </c>
       <c r="B29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="21" customFormat="1">
+      <c r="A30" s="20"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.75">
+      <c r="A31" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E31" t="s">
+        <v>106</v>
+      </c>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+    </row>
+    <row r="32" spans="1:7" ht="15.75">
+      <c r="A32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" t="s">
         <v>110</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C32" t="s">
         <v>110</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="E32" t="s">
+        <v>106</v>
+      </c>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+    </row>
+    <row r="33" spans="1:7" ht="15.75">
+      <c r="A33" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" t="s">
+        <v>111</v>
+      </c>
+      <c r="E33" t="s">
+        <v>106</v>
+      </c>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.75">
+      <c r="A34" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" t="s">
+        <v>112</v>
+      </c>
+      <c r="E34" t="s">
+        <v>106</v>
+      </c>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+    </row>
+    <row r="35" spans="1:7" ht="15.75">
+      <c r="A35" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" t="s">
+        <v>106</v>
+      </c>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+    </row>
+    <row r="36" spans="1:7" ht="15.75">
+      <c r="A36" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" t="s">
+        <v>106</v>
+      </c>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+    </row>
+    <row r="37" spans="1:7" ht="15.75">
+      <c r="A37" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" t="s">
+        <v>106</v>
+      </c>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+    </row>
+    <row r="38" spans="1:7" ht="15.75">
+      <c r="A38" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" t="s">
+        <v>116</v>
+      </c>
+      <c r="E38" t="s">
+        <v>106</v>
+      </c>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+    </row>
+    <row r="39" spans="1:7" ht="15.75">
+      <c r="A39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" t="s">
+        <v>106</v>
+      </c>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+    </row>
+    <row r="40" spans="1:7" ht="15.75">
+      <c r="A40" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" t="s">
+        <v>118</v>
+      </c>
+      <c r="E40" t="s">
+        <v>106</v>
+      </c>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+    </row>
+    <row r="41" spans="1:7" ht="15.75">
+      <c r="A41" t="s">
+        <v>94</v>
+      </c>
+      <c r="B41" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" t="s">
+        <v>119</v>
+      </c>
+      <c r="E41" t="s">
+        <v>103</v>
+      </c>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+    </row>
+    <row r="42" spans="1:7" ht="15.75">
+      <c r="A42" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" t="s">
+        <v>120</v>
+      </c>
+      <c r="E42" t="s">
+        <v>103</v>
+      </c>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+    </row>
+    <row r="43" spans="1:7" ht="15.75">
+      <c r="A43" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43" t="s">
+        <v>121</v>
+      </c>
+      <c r="E43" t="s">
+        <v>103</v>
+      </c>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+    </row>
+    <row r="44" spans="1:7" ht="15.75">
+      <c r="A44" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" t="s">
+        <v>122</v>
+      </c>
+      <c r="E44" t="s">
+        <v>103</v>
+      </c>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+    </row>
+    <row r="45" spans="1:7" ht="15.75">
+      <c r="A45" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" t="s">
+        <v>123</v>
+      </c>
+      <c r="E45" t="s">
+        <v>103</v>
+      </c>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+    </row>
+    <row r="46" spans="1:7" ht="15.75">
+      <c r="A46" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" t="s">
+        <v>124</v>
+      </c>
+      <c r="C46" t="s">
+        <v>124</v>
+      </c>
+      <c r="E46" t="s">
+        <v>103</v>
+      </c>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+    </row>
+    <row r="47" spans="1:7" ht="15.75">
+      <c r="A47" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" t="s">
+        <v>125</v>
+      </c>
+      <c r="C47" t="s">
+        <v>125</v>
+      </c>
+      <c r="E47" t="s">
+        <v>103</v>
+      </c>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+    </row>
+    <row r="48" spans="1:7" ht="15.75">
+      <c r="A48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" t="s">
+        <v>126</v>
+      </c>
+      <c r="C48" t="s">
+        <v>126</v>
+      </c>
+      <c r="E48" t="s">
+        <v>103</v>
+      </c>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+    </row>
+    <row r="49" spans="1:7" ht="15.75">
+      <c r="A49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" t="s">
+        <v>127</v>
+      </c>
+      <c r="C49" t="s">
+        <v>127</v>
+      </c>
+      <c r="E49" t="s">
+        <v>103</v>
+      </c>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+    </row>
+    <row r="50" spans="1:7" ht="15.75">
+      <c r="A50" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" t="s">
+        <v>128</v>
+      </c>
+      <c r="C50" t="s">
+        <v>128</v>
+      </c>
+      <c r="E50" t="s">
+        <v>103</v>
+      </c>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+    </row>
+    <row r="51" spans="1:7" ht="15.75">
+      <c r="A51" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51" t="s">
+        <v>129</v>
+      </c>
+      <c r="C51" t="s">
+        <v>129</v>
+      </c>
+      <c r="E51" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" t="s">
-        <v>111</v>
-      </c>
-      <c r="C30" t="s">
-        <v>111</v>
-      </c>
-      <c r="D30" s="14" t="s">
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+    </row>
+    <row r="52" spans="1:7" ht="15.75">
+      <c r="A52" t="s">
+        <v>94</v>
+      </c>
+      <c r="B52" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" t="s">
+        <v>130</v>
+      </c>
+      <c r="E52" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>94</v>
-      </c>
-      <c r="B32" t="s">
-        <v>112</v>
-      </c>
-      <c r="C32" t="s">
-        <v>112</v>
-      </c>
-      <c r="E32" t="s">
-        <v>108</v>
-      </c>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>94</v>
-      </c>
-      <c r="B33" t="s">
-        <v>113</v>
-      </c>
-      <c r="C33" t="s">
-        <v>113</v>
-      </c>
-      <c r="E33" t="s">
-        <v>108</v>
-      </c>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>94</v>
-      </c>
-      <c r="B34" t="s">
-        <v>114</v>
-      </c>
-      <c r="C34" t="s">
-        <v>114</v>
-      </c>
-      <c r="E34" t="s">
-        <v>108</v>
-      </c>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>94</v>
-      </c>
-      <c r="B35" t="s">
-        <v>115</v>
-      </c>
-      <c r="C35" t="s">
-        <v>115</v>
-      </c>
-      <c r="E35" t="s">
-        <v>108</v>
-      </c>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>94</v>
-      </c>
-      <c r="B36" t="s">
-        <v>116</v>
-      </c>
-      <c r="C36" t="s">
-        <v>116</v>
-      </c>
-      <c r="E36" t="s">
-        <v>108</v>
-      </c>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>94</v>
-      </c>
-      <c r="B37" t="s">
-        <v>117</v>
-      </c>
-      <c r="C37" t="s">
-        <v>117</v>
-      </c>
-      <c r="E37" t="s">
-        <v>108</v>
-      </c>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>94</v>
-      </c>
-      <c r="B38" t="s">
-        <v>118</v>
-      </c>
-      <c r="C38" t="s">
-        <v>118</v>
-      </c>
-      <c r="E38" t="s">
-        <v>108</v>
-      </c>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>94</v>
-      </c>
-      <c r="B39" t="s">
-        <v>119</v>
-      </c>
-      <c r="C39" t="s">
-        <v>119</v>
-      </c>
-      <c r="E39" t="s">
-        <v>108</v>
-      </c>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-    </row>
-    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>94</v>
-      </c>
-      <c r="B40" t="s">
-        <v>120</v>
-      </c>
-      <c r="C40" t="s">
-        <v>120</v>
-      </c>
-      <c r="E40" t="s">
-        <v>108</v>
-      </c>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-    </row>
-    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>94</v>
-      </c>
-      <c r="B41" t="s">
-        <v>121</v>
-      </c>
-      <c r="C41" t="s">
-        <v>121</v>
-      </c>
-      <c r="E41" t="s">
-        <v>108</v>
-      </c>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-    </row>
-    <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>94</v>
-      </c>
-      <c r="B42" t="s">
-        <v>122</v>
-      </c>
-      <c r="C42" t="s">
-        <v>122</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+    </row>
+    <row r="53" spans="1:7" ht="15.75">
+      <c r="A53" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53" t="s">
+        <v>131</v>
+      </c>
+      <c r="C53" t="s">
+        <v>131</v>
+      </c>
+      <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+    </row>
+    <row r="54" spans="1:7" ht="15.75">
+      <c r="A54" t="s">
+        <v>94</v>
+      </c>
+      <c r="B54" t="s">
+        <v>132</v>
+      </c>
+      <c r="C54" t="s">
+        <v>132</v>
+      </c>
+      <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+    </row>
+    <row r="55" spans="1:7" ht="15.75">
+      <c r="A55" t="s">
+        <v>94</v>
+      </c>
+      <c r="B55" t="s">
+        <v>133</v>
+      </c>
+      <c r="C55" t="s">
+        <v>133</v>
+      </c>
+      <c r="E55" t="s">
+        <v>104</v>
+      </c>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+    </row>
+    <row r="56" spans="1:7" ht="15.75">
+      <c r="A56" t="s">
+        <v>94</v>
+      </c>
+      <c r="B56" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" t="s">
+        <v>134</v>
+      </c>
+      <c r="E56" t="s">
+        <v>104</v>
+      </c>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+    </row>
+    <row r="57" spans="1:7" ht="15.75">
+      <c r="A57" t="s">
+        <v>94</v>
+      </c>
+      <c r="B57" t="s">
+        <v>135</v>
+      </c>
+      <c r="C57" t="s">
+        <v>135</v>
+      </c>
+      <c r="E57" t="s">
+        <v>104</v>
+      </c>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+    </row>
+    <row r="58" spans="1:7" ht="15.75">
+      <c r="A58" t="s">
+        <v>94</v>
+      </c>
+      <c r="B58" t="s">
+        <v>136</v>
+      </c>
+      <c r="C58" t="s">
+        <v>136</v>
+      </c>
+      <c r="E58" t="s">
+        <v>104</v>
+      </c>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+    </row>
+    <row r="59" spans="1:7" ht="15.75">
+      <c r="A59" t="s">
+        <v>94</v>
+      </c>
+      <c r="B59" t="s">
+        <v>137</v>
+      </c>
+      <c r="C59" t="s">
+        <v>137</v>
+      </c>
+      <c r="E59" t="s">
+        <v>104</v>
+      </c>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
+    </row>
+    <row r="60" spans="1:7" ht="15.75">
+      <c r="A60" t="s">
+        <v>94</v>
+      </c>
+      <c r="B60" t="s">
+        <v>104</v>
+      </c>
+      <c r="C60" t="s">
+        <v>104</v>
+      </c>
+      <c r="E60" t="s">
+        <v>104</v>
+      </c>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+    </row>
+    <row r="61" spans="1:7" ht="15.75">
+      <c r="A61" t="s">
+        <v>94</v>
+      </c>
+      <c r="B61" t="s">
+        <v>138</v>
+      </c>
+      <c r="C61" t="s">
+        <v>138</v>
+      </c>
+      <c r="E61" t="s">
         <v>105</v>
       </c>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-    </row>
-    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>94</v>
-      </c>
-      <c r="B43" t="s">
-        <v>123</v>
-      </c>
-      <c r="C43" t="s">
-        <v>123</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+    </row>
+    <row r="62" spans="1:7" ht="15.75">
+      <c r="A62" t="s">
+        <v>94</v>
+      </c>
+      <c r="B62" t="s">
+        <v>139</v>
+      </c>
+      <c r="C62" t="s">
+        <v>139</v>
+      </c>
+      <c r="E62" t="s">
         <v>105</v>
       </c>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-    </row>
-    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>94</v>
-      </c>
-      <c r="B44" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" t="s">
-        <v>124</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+    </row>
+    <row r="63" spans="1:7" ht="15.75">
+      <c r="A63" t="s">
+        <v>94</v>
+      </c>
+      <c r="B63" t="s">
+        <v>140</v>
+      </c>
+      <c r="C63" t="s">
+        <v>140</v>
+      </c>
+      <c r="E63" t="s">
         <v>105</v>
       </c>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-    </row>
-    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>94</v>
-      </c>
-      <c r="B45" t="s">
-        <v>125</v>
-      </c>
-      <c r="C45" t="s">
-        <v>125</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
+    </row>
+    <row r="64" spans="1:7" ht="15.75">
+      <c r="A64" t="s">
+        <v>94</v>
+      </c>
+      <c r="B64" t="s">
+        <v>141</v>
+      </c>
+      <c r="C64" t="s">
+        <v>141</v>
+      </c>
+      <c r="E64" t="s">
         <v>105</v>
       </c>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-    </row>
-    <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>94</v>
-      </c>
-      <c r="B46" t="s">
-        <v>126</v>
-      </c>
-      <c r="C46" t="s">
-        <v>126</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="F64" s="24"/>
+      <c r="G64" s="24"/>
+    </row>
+    <row r="65" spans="1:7" ht="15.75">
+      <c r="A65" t="s">
+        <v>94</v>
+      </c>
+      <c r="B65" t="s">
+        <v>142</v>
+      </c>
+      <c r="C65" t="s">
+        <v>142</v>
+      </c>
+      <c r="E65" t="s">
         <v>105</v>
       </c>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-    </row>
-    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>94</v>
-      </c>
-      <c r="B47" t="s">
-        <v>127</v>
-      </c>
-      <c r="C47" t="s">
-        <v>127</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="F65" s="24"/>
+      <c r="G65" s="24"/>
+    </row>
+    <row r="66" spans="1:7" ht="15.75">
+      <c r="A66" t="s">
+        <v>94</v>
+      </c>
+      <c r="B66" t="s">
+        <v>143</v>
+      </c>
+      <c r="C66" t="s">
+        <v>143</v>
+      </c>
+      <c r="E66" t="s">
         <v>105</v>
       </c>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-    </row>
-    <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>94</v>
-      </c>
-      <c r="B48" t="s">
-        <v>128</v>
-      </c>
-      <c r="C48" t="s">
-        <v>128</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="F66" s="24"/>
+      <c r="G66" s="24"/>
+    </row>
+    <row r="67" spans="1:7" ht="15.75">
+      <c r="A67" t="s">
+        <v>94</v>
+      </c>
+      <c r="B67" t="s">
+        <v>144</v>
+      </c>
+      <c r="C67" t="s">
+        <v>144</v>
+      </c>
+      <c r="E67" t="s">
         <v>105</v>
       </c>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-    </row>
-    <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>94</v>
-      </c>
-      <c r="B49" t="s">
-        <v>129</v>
-      </c>
-      <c r="C49" t="s">
-        <v>129</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="F67" s="24"/>
+      <c r="G67" s="24"/>
+    </row>
+    <row r="68" spans="1:7" ht="15.75">
+      <c r="A68" t="s">
+        <v>94</v>
+      </c>
+      <c r="B68" t="s">
+        <v>145</v>
+      </c>
+      <c r="C68" t="s">
+        <v>145</v>
+      </c>
+      <c r="E68" t="s">
         <v>105</v>
       </c>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-    </row>
-    <row r="50" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>94</v>
-      </c>
-      <c r="B50" t="s">
-        <v>130</v>
-      </c>
-      <c r="C50" t="s">
-        <v>130</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="F68" s="24"/>
+      <c r="G68" s="24"/>
+    </row>
+    <row r="69" spans="1:7" ht="15.75">
+      <c r="A69" t="s">
+        <v>94</v>
+      </c>
+      <c r="B69" t="s">
+        <v>146</v>
+      </c>
+      <c r="C69" t="s">
+        <v>146</v>
+      </c>
+      <c r="E69" t="s">
         <v>105</v>
       </c>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-    </row>
-    <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>94</v>
-      </c>
-      <c r="B51" t="s">
-        <v>131</v>
-      </c>
-      <c r="C51" t="s">
-        <v>131</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+    </row>
+    <row r="70" spans="1:7" ht="15.75">
+      <c r="A70" t="s">
+        <v>94</v>
+      </c>
+      <c r="B70" t="s">
+        <v>147</v>
+      </c>
+      <c r="C70" t="s">
+        <v>147</v>
+      </c>
+      <c r="E70" t="s">
         <v>105</v>
       </c>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-    </row>
-    <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>94</v>
-      </c>
-      <c r="B52" t="s">
-        <v>132</v>
-      </c>
-      <c r="C52" t="s">
-        <v>132</v>
-      </c>
-      <c r="E52" t="s">
-        <v>106</v>
-      </c>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-    </row>
-    <row r="53" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>94</v>
-      </c>
-      <c r="B53" t="s">
-        <v>133</v>
-      </c>
-      <c r="C53" t="s">
-        <v>133</v>
-      </c>
-      <c r="E53" t="s">
-        <v>106</v>
-      </c>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-    </row>
-    <row r="54" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>94</v>
-      </c>
-      <c r="B54" t="s">
-        <v>134</v>
-      </c>
-      <c r="C54" t="s">
-        <v>134</v>
-      </c>
-      <c r="E54" t="s">
-        <v>106</v>
-      </c>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-    </row>
-    <row r="55" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>94</v>
-      </c>
-      <c r="B55" t="s">
-        <v>135</v>
-      </c>
-      <c r="C55" t="s">
-        <v>135</v>
-      </c>
-      <c r="E55" t="s">
-        <v>106</v>
-      </c>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-    </row>
-    <row r="56" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>94</v>
-      </c>
-      <c r="B56" t="s">
-        <v>136</v>
-      </c>
-      <c r="C56" t="s">
-        <v>136</v>
-      </c>
-      <c r="E56" t="s">
-        <v>106</v>
-      </c>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-    </row>
-    <row r="57" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>94</v>
-      </c>
-      <c r="B57" t="s">
-        <v>137</v>
-      </c>
-      <c r="C57" t="s">
-        <v>137</v>
-      </c>
-      <c r="E57" t="s">
-        <v>106</v>
-      </c>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-    </row>
-    <row r="58" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>94</v>
-      </c>
-      <c r="B58" t="s">
-        <v>138</v>
-      </c>
-      <c r="C58" t="s">
-        <v>138</v>
-      </c>
-      <c r="E58" t="s">
-        <v>106</v>
-      </c>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-    </row>
-    <row r="59" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>94</v>
-      </c>
-      <c r="B59" t="s">
-        <v>139</v>
-      </c>
-      <c r="C59" t="s">
-        <v>139</v>
-      </c>
-      <c r="E59" t="s">
-        <v>106</v>
-      </c>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-    </row>
-    <row r="60" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>94</v>
-      </c>
-      <c r="B60" t="s">
-        <v>140</v>
-      </c>
-      <c r="C60" t="s">
-        <v>140</v>
-      </c>
-      <c r="E60" t="s">
-        <v>106</v>
-      </c>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-    </row>
-    <row r="61" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>94</v>
-      </c>
-      <c r="B61" t="s">
-        <v>106</v>
-      </c>
-      <c r="C61" t="s">
-        <v>106</v>
-      </c>
-      <c r="E61" t="s">
-        <v>106</v>
-      </c>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-    </row>
-    <row r="62" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>94</v>
-      </c>
-      <c r="B62" t="s">
-        <v>141</v>
-      </c>
-      <c r="C62" t="s">
-        <v>141</v>
-      </c>
-      <c r="E62" t="s">
-        <v>107</v>
-      </c>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-    </row>
-    <row r="63" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>94</v>
-      </c>
-      <c r="B63" t="s">
-        <v>142</v>
-      </c>
-      <c r="C63" t="s">
-        <v>142</v>
-      </c>
-      <c r="E63" t="s">
-        <v>107</v>
-      </c>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
-    </row>
-    <row r="64" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>94</v>
-      </c>
-      <c r="B64" t="s">
-        <v>143</v>
-      </c>
-      <c r="C64" t="s">
-        <v>143</v>
-      </c>
-      <c r="E64" t="s">
-        <v>107</v>
-      </c>
-      <c r="F64" s="22"/>
-      <c r="G64" s="22"/>
-    </row>
-    <row r="65" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>94</v>
-      </c>
-      <c r="B65" t="s">
-        <v>144</v>
-      </c>
-      <c r="C65" t="s">
-        <v>144</v>
-      </c>
-      <c r="E65" t="s">
-        <v>107</v>
-      </c>
-      <c r="F65" s="22"/>
-      <c r="G65" s="22"/>
-    </row>
-    <row r="66" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>94</v>
-      </c>
-      <c r="B66" t="s">
-        <v>145</v>
-      </c>
-      <c r="C66" t="s">
-        <v>145</v>
-      </c>
-      <c r="E66" t="s">
-        <v>107</v>
-      </c>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
-    </row>
-    <row r="67" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>94</v>
-      </c>
-      <c r="B67" t="s">
-        <v>146</v>
-      </c>
-      <c r="C67" t="s">
-        <v>146</v>
-      </c>
-      <c r="E67" t="s">
-        <v>107</v>
-      </c>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-    </row>
-    <row r="68" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>94</v>
-      </c>
-      <c r="B68" t="s">
-        <v>147</v>
-      </c>
-      <c r="C68" t="s">
-        <v>147</v>
-      </c>
-      <c r="E68" t="s">
-        <v>107</v>
-      </c>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-    </row>
-    <row r="69" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>94</v>
-      </c>
-      <c r="B69" t="s">
-        <v>148</v>
-      </c>
-      <c r="C69" t="s">
-        <v>148</v>
-      </c>
-      <c r="E69" t="s">
-        <v>107</v>
-      </c>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-    </row>
-    <row r="70" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>94</v>
-      </c>
-      <c r="B70" t="s">
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+    </row>
+    <row r="71" spans="1:7" ht="15.75">
+      <c r="A71" t="s">
+        <v>94</v>
+      </c>
+      <c r="B71" t="s">
         <v>149</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C71" t="s">
         <v>149</v>
-      </c>
-      <c r="E70" t="s">
-        <v>107</v>
-      </c>
-      <c r="F70" s="22"/>
-      <c r="G70" s="22"/>
-    </row>
-    <row r="71" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>94</v>
-      </c>
-      <c r="B71" t="s">
-        <v>150</v>
-      </c>
-      <c r="C71" t="s">
-        <v>150</v>
       </c>
       <c r="E71" t="s">
         <v>107</v>
       </c>
-      <c r="F71" s="22"/>
-      <c r="G71" s="22"/>
-    </row>
-    <row r="72" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F71" s="24"/>
+      <c r="G71" s="24"/>
+    </row>
+    <row r="72" spans="1:7" ht="15.75">
       <c r="A72" t="s">
         <v>94</v>
       </c>
       <c r="B72" t="s">
+        <v>150</v>
+      </c>
+      <c r="C72" t="s">
+        <v>150</v>
+      </c>
+      <c r="E72" t="s">
+        <v>107</v>
+      </c>
+      <c r="F72" s="24"/>
+      <c r="G72" s="24"/>
+    </row>
+    <row r="73" spans="1:7" ht="15.75">
+      <c r="A73" t="s">
+        <v>94</v>
+      </c>
+      <c r="B73" t="s">
         <v>151</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C73" t="s">
         <v>151</v>
       </c>
-      <c r="E72" t="s">
-        <v>109</v>
-      </c>
-      <c r="F72" s="22"/>
-      <c r="G72" s="22"/>
-    </row>
-    <row r="73" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>94</v>
-      </c>
-      <c r="B73" t="s">
+      <c r="E73" t="s">
+        <v>107</v>
+      </c>
+      <c r="F73" s="24"/>
+      <c r="G73" s="24"/>
+    </row>
+    <row r="74" spans="1:7" ht="15.75">
+      <c r="A74" t="s">
+        <v>94</v>
+      </c>
+      <c r="B74" t="s">
         <v>152</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C74" t="s">
         <v>152</v>
       </c>
-      <c r="E73" t="s">
-        <v>110</v>
-      </c>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-    </row>
-    <row r="74" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>94</v>
-      </c>
-      <c r="B74" t="s">
+      <c r="E74" t="s">
+        <v>107</v>
+      </c>
+      <c r="F74" s="24"/>
+      <c r="G74" s="24"/>
+    </row>
+    <row r="75" spans="1:7" ht="15.75">
+      <c r="A75" t="s">
+        <v>94</v>
+      </c>
+      <c r="B75" t="s">
         <v>153</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C75" t="s">
         <v>153</v>
       </c>
-      <c r="E74" t="s">
-        <v>110</v>
-      </c>
-      <c r="F74" s="22"/>
-      <c r="G74" s="22"/>
-    </row>
-    <row r="75" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>94</v>
-      </c>
-      <c r="B75" t="s">
+      <c r="E75" t="s">
+        <v>107</v>
+      </c>
+      <c r="F75" s="24"/>
+      <c r="G75" s="24"/>
+    </row>
+    <row r="76" spans="1:7" ht="15.75">
+      <c r="A76" t="s">
+        <v>94</v>
+      </c>
+      <c r="B76" t="s">
         <v>154</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C76" t="s">
         <v>154</v>
       </c>
-      <c r="E75" t="s">
-        <v>110</v>
-      </c>
-      <c r="F75" s="22"/>
-      <c r="G75" s="22"/>
-    </row>
-    <row r="76" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>94</v>
-      </c>
-      <c r="B76" t="s">
+      <c r="E76" t="s">
+        <v>107</v>
+      </c>
+      <c r="F76" s="24"/>
+      <c r="G76" s="24"/>
+    </row>
+    <row r="77" spans="1:7" ht="15.75">
+      <c r="A77" t="s">
+        <v>94</v>
+      </c>
+      <c r="B77" t="s">
         <v>155</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C77" t="s">
         <v>155</v>
       </c>
-      <c r="E76" t="s">
-        <v>110</v>
-      </c>
-      <c r="F76" s="22"/>
-      <c r="G76" s="22"/>
-    </row>
-    <row r="77" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>94</v>
-      </c>
-      <c r="B77" t="s">
+      <c r="E77" t="s">
+        <v>107</v>
+      </c>
+      <c r="F77" s="24"/>
+      <c r="G77" s="24"/>
+    </row>
+    <row r="78" spans="1:7" ht="15.75">
+      <c r="A78" t="s">
+        <v>94</v>
+      </c>
+      <c r="B78" t="s">
         <v>156</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C78" t="s">
         <v>156</v>
       </c>
-      <c r="E77" t="s">
-        <v>110</v>
-      </c>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
-    </row>
-    <row r="78" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>94</v>
-      </c>
-      <c r="B78" t="s">
+      <c r="E78" t="s">
+        <v>107</v>
+      </c>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
+    </row>
+    <row r="79" spans="1:7" ht="15.75">
+      <c r="A79" t="s">
+        <v>94</v>
+      </c>
+      <c r="B79" t="s">
+        <v>148</v>
+      </c>
+      <c r="C79" t="s">
+        <v>148</v>
+      </c>
+      <c r="E79" t="s">
+        <v>107</v>
+      </c>
+      <c r="F79" s="24"/>
+      <c r="G79" s="24"/>
+    </row>
+    <row r="80" spans="1:7" ht="15.75">
+      <c r="A80" t="s">
+        <v>94</v>
+      </c>
+      <c r="B80" t="s">
         <v>157</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C80" t="s">
         <v>157</v>
       </c>
-      <c r="E78" t="s">
-        <v>110</v>
-      </c>
-      <c r="F78" s="22"/>
-      <c r="G78" s="22"/>
-    </row>
-    <row r="79" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>94</v>
-      </c>
-      <c r="B79" t="s">
+      <c r="E80" t="s">
+        <v>107</v>
+      </c>
+      <c r="F80" s="24"/>
+      <c r="G80" s="24"/>
+    </row>
+    <row r="81" spans="1:7" ht="15.75">
+      <c r="A81" t="s">
+        <v>94</v>
+      </c>
+      <c r="B81" t="s">
         <v>158</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C81" t="s">
         <v>158</v>
       </c>
-      <c r="E79" t="s">
-        <v>110</v>
-      </c>
-      <c r="F79" s="22"/>
-      <c r="G79" s="22"/>
-    </row>
-    <row r="80" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>94</v>
-      </c>
-      <c r="B80" t="s">
+      <c r="E81" t="s">
+        <v>108</v>
+      </c>
+      <c r="F81" s="24"/>
+      <c r="G81" s="24"/>
+    </row>
+    <row r="82" spans="1:7" ht="15.75">
+      <c r="A82" t="s">
+        <v>94</v>
+      </c>
+      <c r="B82" t="s">
         <v>159</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C82" t="s">
         <v>159</v>
       </c>
-      <c r="E80" t="s">
-        <v>110</v>
-      </c>
-      <c r="F80" s="22"/>
-      <c r="G80" s="22"/>
-    </row>
-    <row r="81" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>94</v>
-      </c>
-      <c r="B81" t="s">
+      <c r="E82" t="s">
+        <v>108</v>
+      </c>
+      <c r="F82" s="24"/>
+      <c r="G82" s="24"/>
+    </row>
+    <row r="83" spans="1:7" ht="15.75">
+      <c r="A83" t="s">
+        <v>94</v>
+      </c>
+      <c r="B83" t="s">
         <v>160</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C83" t="s">
         <v>160</v>
       </c>
-      <c r="E81" t="s">
-        <v>110</v>
-      </c>
-      <c r="F81" s="22"/>
-      <c r="G81" s="22"/>
-    </row>
-    <row r="82" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>94</v>
-      </c>
-      <c r="B82" t="s">
+      <c r="E83" t="s">
+        <v>108</v>
+      </c>
+      <c r="F83" s="24"/>
+      <c r="G83" s="24"/>
+    </row>
+    <row r="84" spans="1:7" ht="15.75">
+      <c r="A84" t="s">
+        <v>94</v>
+      </c>
+      <c r="B84" t="s">
         <v>161</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C84" t="s">
         <v>161</v>
       </c>
-      <c r="E82" t="s">
-        <v>111</v>
-      </c>
-      <c r="F82" s="22"/>
-      <c r="G82" s="22"/>
-    </row>
-    <row r="83" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>94</v>
-      </c>
-      <c r="B83" t="s">
+      <c r="E84" t="s">
+        <v>108</v>
+      </c>
+      <c r="F84" s="24"/>
+      <c r="G84" s="24"/>
+    </row>
+    <row r="85" spans="1:7" ht="15.75">
+      <c r="A85" t="s">
+        <v>94</v>
+      </c>
+      <c r="B85" t="s">
         <v>162</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C85" t="s">
         <v>162</v>
       </c>
-      <c r="E83" t="s">
-        <v>111</v>
-      </c>
-      <c r="F83" s="22"/>
-      <c r="G83" s="22"/>
-    </row>
-    <row r="84" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>94</v>
-      </c>
-      <c r="B84" t="s">
+      <c r="E85" t="s">
+        <v>108</v>
+      </c>
+      <c r="F85" s="24"/>
+      <c r="G85" s="24"/>
+    </row>
+    <row r="86" spans="1:7" ht="15.75">
+      <c r="A86" t="s">
+        <v>94</v>
+      </c>
+      <c r="B86" t="s">
+        <v>108</v>
+      </c>
+      <c r="C86" t="s">
+        <v>108</v>
+      </c>
+      <c r="E86" t="s">
+        <v>108</v>
+      </c>
+      <c r="F86" s="24"/>
+      <c r="G86" s="24"/>
+    </row>
+    <row r="87" spans="1:7" ht="15.75">
+      <c r="A87" t="s">
+        <v>94</v>
+      </c>
+      <c r="B87" t="s">
         <v>163</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C87" t="s">
         <v>163</v>
       </c>
-      <c r="E84" t="s">
-        <v>111</v>
-      </c>
-      <c r="F84" s="22"/>
-      <c r="G84" s="22"/>
-    </row>
-    <row r="85" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>94</v>
-      </c>
-      <c r="B85" t="s">
-        <v>164</v>
-      </c>
-      <c r="C85" t="s">
-        <v>164</v>
-      </c>
-      <c r="E85" t="s">
-        <v>111</v>
-      </c>
-      <c r="F85" s="22"/>
-      <c r="G85" s="22"/>
-    </row>
-    <row r="86" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>94</v>
-      </c>
-      <c r="B86" t="s">
-        <v>165</v>
-      </c>
-      <c r="C86" t="s">
-        <v>165</v>
-      </c>
-      <c r="E86" t="s">
-        <v>111</v>
-      </c>
-      <c r="F86" s="22"/>
-      <c r="G86" s="22"/>
-    </row>
-    <row r="87" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>94</v>
-      </c>
-      <c r="B87" t="s">
-        <v>111</v>
-      </c>
-      <c r="C87" t="s">
-        <v>111</v>
-      </c>
       <c r="E87" t="s">
-        <v>111</v>
-      </c>
-      <c r="F87" s="22"/>
-      <c r="G87" s="22"/>
-    </row>
-    <row r="88" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>94</v>
-      </c>
-      <c r="B88" t="s">
-        <v>166</v>
-      </c>
-      <c r="C88" t="s">
-        <v>166</v>
-      </c>
-      <c r="E88" t="s">
-        <v>111</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="F87" s="24"/>
+      <c r="G87" s="24"/>
+    </row>
+    <row r="88" spans="1:7" ht="15.75">
       <c r="F88" s="22"/>
       <c r="G88" s="22"/>
     </row>
-    <row r="89" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="15.75">
       <c r="F89" s="22"/>
       <c r="G89" s="22"/>
     </row>
-    <row r="90" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="15.75">
       <c r="F90" s="22"/>
       <c r="G90" s="22"/>
     </row>
-    <row r="91" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="15.75">
       <c r="F91" s="22"/>
       <c r="G91" s="22"/>
     </row>
-    <row r="92" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="15.75">
       <c r="F92" s="22"/>
       <c r="G92" s="22"/>
     </row>
-    <row r="93" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="15.75">
       <c r="F93" s="22"/>
       <c r="G93" s="22"/>
     </row>
-    <row r="94" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="15.75">
       <c r="F94" s="22"/>
       <c r="G94" s="22"/>
     </row>
-    <row r="95" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="15.75">
       <c r="F95" s="22"/>
       <c r="G95" s="22"/>
     </row>
-    <row r="96" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="15.75">
       <c r="F96" s="22"/>
       <c r="G96" s="22"/>
     </row>
-    <row r="97" spans="6:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="6:7" ht="15.75">
       <c r="F97" s="22"/>
       <c r="G97" s="22"/>
     </row>
-    <row r="98" spans="6:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="6:7" ht="15.75">
       <c r="F98" s="22"/>
       <c r="G98" s="22"/>
     </row>
-    <row r="99" spans="6:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="6:7" ht="15.75">
       <c r="F99" s="22"/>
       <c r="G99" s="22"/>
     </row>
-    <row r="100" spans="6:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="6:7" ht="15.75">
       <c r="F100" s="22"/>
       <c r="G100" s="22"/>
     </row>
-    <row r="101" spans="6:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="6:7" ht="15.75">
       <c r="F101" s="22"/>
       <c r="G101" s="22"/>
     </row>
-    <row r="102" spans="6:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="6:7" ht="15.75">
       <c r="F102" s="22"/>
       <c r="G102" s="22"/>
     </row>
-    <row r="103" spans="6:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="6:7" ht="15.75">
       <c r="F103" s="22"/>
       <c r="G103" s="22"/>
     </row>
@@ -2686,19 +2681,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="58.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" style="18" bestFit="1"/>
     <col min="4" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75">
       <c r="A1" s="17" t="s">
         <v>95</v>
       </c>
@@ -2712,12 +2707,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>102</v>
+    <row r="2" spans="1:4" ht="15.75">
+      <c r="A2" s="25" t="s">
+        <v>165</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>101</v>
+        <v>164</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>99</v>

--- a/SCH-STH/Impact assessments/Burkina Faso/nov 2023/bf_202311_sch_impact_assessment_4_resultat_urines.xlsx
+++ b/SCH-STH/Impact assessments/Burkina Faso/nov 2023/bf_202311_sch_impact_assessment_4_resultat_urines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Burkina Faso\nov 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00AF8C5-DB3D-40D5-AE35-DCDA7DEA4FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E071DBE1-1FEA-496C-A567-8B866DF0EC5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="169">
   <si>
     <t>type</t>
   </si>
@@ -498,35 +498,44 @@
     <t>Urbain</t>
   </si>
   <si>
-    <t>Boudry</t>
-  </si>
-  <si>
     <t>Meguet</t>
   </si>
   <si>
     <t>Mogtedo</t>
   </si>
   <si>
-    <t>Salogo</t>
-  </si>
-  <si>
-    <t>Zam</t>
-  </si>
-  <si>
-    <t>Zoungou</t>
-  </si>
-  <si>
-    <t>bf_202311_sch_impact_assessment_4_resultat_urines_v2</t>
-  </si>
-  <si>
-    <t>(BF - Novembre 2023) impact schisto - 4. Formulaire Results Urines V2</t>
+    <t>Bourma</t>
+  </si>
+  <si>
+    <t>Dawaka</t>
+  </si>
+  <si>
+    <t>Koumséogo</t>
+  </si>
+  <si>
+    <t>Rapadama Ud</t>
+  </si>
+  <si>
+    <t>Sankuissi</t>
+  </si>
+  <si>
+    <t>Talembika</t>
+  </si>
+  <si>
+    <t>Wada</t>
+  </si>
+  <si>
+    <t>(BF - Novembre 2023) impact schisto - 4. Formulaire Results Urines V2.1</t>
+  </si>
+  <si>
+    <t>bf_202311_sch_impact_assessment_4_resultat_urines_v2_1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="14">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -618,13 +627,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -685,7 +687,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -734,7 +736,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1001,7 +1002,7 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.85546875" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
@@ -1016,7 +1017,7 @@
     <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="18.75">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1060,7 +1061,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75">
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -1074,7 +1075,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75">
+    <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
@@ -1088,7 +1089,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="30">
+    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>21</v>
       </c>
@@ -1113,7 +1114,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="30">
+    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>25</v>
       </c>
@@ -1135,7 +1136,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75">
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1153,7 +1154,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:14" ht="47.25">
+    <row r="7" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>32</v>
       </c>
@@ -1177,7 +1178,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>32</v>
       </c>
@@ -1197,7 +1198,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="45">
+    <row r="9" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>32</v>
       </c>
@@ -1224,7 +1225,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -1238,7 +1239,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="30">
+    <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>47</v>
       </c>
@@ -1255,7 +1256,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -1272,7 +1273,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>53</v>
       </c>
@@ -1289,7 +1290,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -1306,7 +1307,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>47</v>
       </c>
@@ -1323,7 +1324,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>60</v>
       </c>
@@ -1335,7 +1336,7 @@
       </c>
       <c r="H16" s="11"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -1343,7 +1344,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>65</v>
       </c>
@@ -1351,7 +1352,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
     </row>
   </sheetData>
@@ -1364,11 +1365,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.7109375" bestFit="1" customWidth="1"/>
@@ -1376,7 +1377,7 @@
     <col min="5" max="5" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>67</v>
       </c>
@@ -1396,7 +1397,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -1407,7 +1408,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -1418,7 +1419,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -1429,7 +1430,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -1440,7 +1441,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -1451,7 +1452,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -1462,7 +1463,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>71</v>
       </c>
@@ -1473,7 +1474,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -1484,8 +1485,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="15" customFormat="1"/>
-    <row r="11" spans="1:6">
+    <row r="10" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>80</v>
       </c>
@@ -1496,7 +1497,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>80</v>
       </c>
@@ -1507,10 +1508,10 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="15" customFormat="1">
+    <row r="13" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>85</v>
       </c>
@@ -1521,7 +1522,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>85</v>
       </c>
@@ -1532,7 +1533,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>85</v>
       </c>
@@ -1543,7 +1544,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>85</v>
       </c>
@@ -1554,7 +1555,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -1565,7 +1566,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>85</v>
       </c>
@@ -1576,10 +1577,10 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>68</v>
       </c>
@@ -1590,7 +1591,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>68</v>
       </c>
@@ -1605,10 +1606,10 @@
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:7" s="21" customFormat="1">
+    <row r="23" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
     </row>
-    <row r="24" spans="1:7" ht="15.75">
+    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>69</v>
       </c>
@@ -1622,7 +1623,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>69</v>
       </c>
@@ -1636,7 +1637,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>69</v>
       </c>
@@ -1650,7 +1651,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>69</v>
       </c>
@@ -1664,7 +1665,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>69</v>
       </c>
@@ -1678,7 +1679,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>69</v>
       </c>
@@ -1692,10 +1693,10 @@
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="21" customFormat="1">
+    <row r="30" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="20"/>
     </row>
-    <row r="31" spans="1:7" ht="15.75">
+    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>94</v>
       </c>
@@ -1708,10 +1709,10 @@
       <c r="E31" t="s">
         <v>106</v>
       </c>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-    </row>
-    <row r="32" spans="1:7" ht="15.75">
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>94</v>
       </c>
@@ -1724,10 +1725,10 @@
       <c r="E32" t="s">
         <v>106</v>
       </c>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-    </row>
-    <row r="33" spans="1:7" ht="15.75">
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>94</v>
       </c>
@@ -1740,10 +1741,10 @@
       <c r="E33" t="s">
         <v>106</v>
       </c>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-    </row>
-    <row r="34" spans="1:7" ht="15.75">
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>94</v>
       </c>
@@ -1756,10 +1757,10 @@
       <c r="E34" t="s">
         <v>106</v>
       </c>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-    </row>
-    <row r="35" spans="1:7" ht="15.75">
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>94</v>
       </c>
@@ -1772,10 +1773,10 @@
       <c r="E35" t="s">
         <v>106</v>
       </c>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-    </row>
-    <row r="36" spans="1:7" ht="15.75">
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>94</v>
       </c>
@@ -1788,10 +1789,10 @@
       <c r="E36" t="s">
         <v>106</v>
       </c>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-    </row>
-    <row r="37" spans="1:7" ht="15.75">
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>94</v>
       </c>
@@ -1804,10 +1805,10 @@
       <c r="E37" t="s">
         <v>106</v>
       </c>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-    </row>
-    <row r="38" spans="1:7" ht="15.75">
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>94</v>
       </c>
@@ -1820,10 +1821,10 @@
       <c r="E38" t="s">
         <v>106</v>
       </c>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-    </row>
-    <row r="39" spans="1:7" ht="15.75">
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>94</v>
       </c>
@@ -1836,10 +1837,10 @@
       <c r="E39" t="s">
         <v>106</v>
       </c>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-    </row>
-    <row r="40" spans="1:7" ht="15.75">
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>94</v>
       </c>
@@ -1852,10 +1853,10 @@
       <c r="E40" t="s">
         <v>106</v>
       </c>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-    </row>
-    <row r="41" spans="1:7" ht="15.75">
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>94</v>
       </c>
@@ -1868,10 +1869,10 @@
       <c r="E41" t="s">
         <v>103</v>
       </c>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-    </row>
-    <row r="42" spans="1:7" ht="15.75">
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>94</v>
       </c>
@@ -1884,10 +1885,10 @@
       <c r="E42" t="s">
         <v>103</v>
       </c>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-    </row>
-    <row r="43" spans="1:7" ht="15.75">
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>94</v>
       </c>
@@ -1900,10 +1901,10 @@
       <c r="E43" t="s">
         <v>103</v>
       </c>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-    </row>
-    <row r="44" spans="1:7" ht="15.75">
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>94</v>
       </c>
@@ -1916,10 +1917,10 @@
       <c r="E44" t="s">
         <v>103</v>
       </c>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-    </row>
-    <row r="45" spans="1:7" ht="15.75">
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>94</v>
       </c>
@@ -1932,10 +1933,10 @@
       <c r="E45" t="s">
         <v>103</v>
       </c>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-    </row>
-    <row r="46" spans="1:7" ht="15.75">
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>94</v>
       </c>
@@ -1948,10 +1949,10 @@
       <c r="E46" t="s">
         <v>103</v>
       </c>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-    </row>
-    <row r="47" spans="1:7" ht="15.75">
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>94</v>
       </c>
@@ -1964,10 +1965,10 @@
       <c r="E47" t="s">
         <v>103</v>
       </c>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-    </row>
-    <row r="48" spans="1:7" ht="15.75">
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -1980,10 +1981,10 @@
       <c r="E48" t="s">
         <v>103</v>
       </c>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-    </row>
-    <row r="49" spans="1:7" ht="15.75">
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>94</v>
       </c>
@@ -1996,10 +1997,10 @@
       <c r="E49" t="s">
         <v>103</v>
       </c>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-    </row>
-    <row r="50" spans="1:7" ht="15.75">
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>94</v>
       </c>
@@ -2012,10 +2013,10 @@
       <c r="E50" t="s">
         <v>103</v>
       </c>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-    </row>
-    <row r="51" spans="1:7" ht="15.75">
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+    </row>
+    <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>94</v>
       </c>
@@ -2028,10 +2029,10 @@
       <c r="E51" t="s">
         <v>104</v>
       </c>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-    </row>
-    <row r="52" spans="1:7" ht="15.75">
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>94</v>
       </c>
@@ -2044,10 +2045,10 @@
       <c r="E52" t="s">
         <v>104</v>
       </c>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-    </row>
-    <row r="53" spans="1:7" ht="15.75">
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>94</v>
       </c>
@@ -2060,10 +2061,10 @@
       <c r="E53" t="s">
         <v>104</v>
       </c>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
-    </row>
-    <row r="54" spans="1:7" ht="15.75">
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>94</v>
       </c>
@@ -2076,10 +2077,10 @@
       <c r="E54" t="s">
         <v>104</v>
       </c>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
-    </row>
-    <row r="55" spans="1:7" ht="15.75">
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+    </row>
+    <row r="55" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>94</v>
       </c>
@@ -2092,10 +2093,10 @@
       <c r="E55" t="s">
         <v>104</v>
       </c>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-    </row>
-    <row r="56" spans="1:7" ht="15.75">
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+    </row>
+    <row r="56" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>94</v>
       </c>
@@ -2108,10 +2109,10 @@
       <c r="E56" t="s">
         <v>104</v>
       </c>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
-    </row>
-    <row r="57" spans="1:7" ht="15.75">
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+    </row>
+    <row r="57" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>94</v>
       </c>
@@ -2124,10 +2125,10 @@
       <c r="E57" t="s">
         <v>104</v>
       </c>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-    </row>
-    <row r="58" spans="1:7" ht="15.75">
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+    </row>
+    <row r="58" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>94</v>
       </c>
@@ -2140,10 +2141,10 @@
       <c r="E58" t="s">
         <v>104</v>
       </c>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
-    </row>
-    <row r="59" spans="1:7" ht="15.75">
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+    </row>
+    <row r="59" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>94</v>
       </c>
@@ -2156,10 +2157,10 @@
       <c r="E59" t="s">
         <v>104</v>
       </c>
-      <c r="F59" s="24"/>
-      <c r="G59" s="24"/>
-    </row>
-    <row r="60" spans="1:7" ht="15.75">
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+    </row>
+    <row r="60" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>94</v>
       </c>
@@ -2172,10 +2173,10 @@
       <c r="E60" t="s">
         <v>104</v>
       </c>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24"/>
-    </row>
-    <row r="61" spans="1:7" ht="15.75">
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+    </row>
+    <row r="61" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>94</v>
       </c>
@@ -2188,10 +2189,10 @@
       <c r="E61" t="s">
         <v>105</v>
       </c>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24"/>
-    </row>
-    <row r="62" spans="1:7" ht="15.75">
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+    </row>
+    <row r="62" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>94</v>
       </c>
@@ -2204,10 +2205,10 @@
       <c r="E62" t="s">
         <v>105</v>
       </c>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
-    </row>
-    <row r="63" spans="1:7" ht="15.75">
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+    </row>
+    <row r="63" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>94</v>
       </c>
@@ -2220,10 +2221,10 @@
       <c r="E63" t="s">
         <v>105</v>
       </c>
-      <c r="F63" s="24"/>
-      <c r="G63" s="24"/>
-    </row>
-    <row r="64" spans="1:7" ht="15.75">
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
+    </row>
+    <row r="64" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>94</v>
       </c>
@@ -2236,10 +2237,10 @@
       <c r="E64" t="s">
         <v>105</v>
       </c>
-      <c r="F64" s="24"/>
-      <c r="G64" s="24"/>
-    </row>
-    <row r="65" spans="1:7" ht="15.75">
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
+    </row>
+    <row r="65" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>94</v>
       </c>
@@ -2252,10 +2253,10 @@
       <c r="E65" t="s">
         <v>105</v>
       </c>
-      <c r="F65" s="24"/>
-      <c r="G65" s="24"/>
-    </row>
-    <row r="66" spans="1:7" ht="15.75">
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
+    </row>
+    <row r="66" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>94</v>
       </c>
@@ -2268,10 +2269,10 @@
       <c r="E66" t="s">
         <v>105</v>
       </c>
-      <c r="F66" s="24"/>
-      <c r="G66" s="24"/>
-    </row>
-    <row r="67" spans="1:7" ht="15.75">
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+    </row>
+    <row r="67" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>94</v>
       </c>
@@ -2284,10 +2285,10 @@
       <c r="E67" t="s">
         <v>105</v>
       </c>
-      <c r="F67" s="24"/>
-      <c r="G67" s="24"/>
-    </row>
-    <row r="68" spans="1:7" ht="15.75">
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+    </row>
+    <row r="68" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>94</v>
       </c>
@@ -2300,10 +2301,10 @@
       <c r="E68" t="s">
         <v>105</v>
       </c>
-      <c r="F68" s="24"/>
-      <c r="G68" s="24"/>
-    </row>
-    <row r="69" spans="1:7" ht="15.75">
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
+    </row>
+    <row r="69" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>94</v>
       </c>
@@ -2316,10 +2317,10 @@
       <c r="E69" t="s">
         <v>105</v>
       </c>
-      <c r="F69" s="24"/>
-      <c r="G69" s="24"/>
-    </row>
-    <row r="70" spans="1:7" ht="15.75">
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+    </row>
+    <row r="70" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>94</v>
       </c>
@@ -2332,10 +2333,10 @@
       <c r="E70" t="s">
         <v>105</v>
       </c>
-      <c r="F70" s="24"/>
-      <c r="G70" s="24"/>
-    </row>
-    <row r="71" spans="1:7" ht="15.75">
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+    </row>
+    <row r="71" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>94</v>
       </c>
@@ -2348,10 +2349,10 @@
       <c r="E71" t="s">
         <v>107</v>
       </c>
-      <c r="F71" s="24"/>
-      <c r="G71" s="24"/>
-    </row>
-    <row r="72" spans="1:7" ht="15.75">
+      <c r="F71" s="22"/>
+      <c r="G71" s="22"/>
+    </row>
+    <row r="72" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>94</v>
       </c>
@@ -2364,10 +2365,10 @@
       <c r="E72" t="s">
         <v>107</v>
       </c>
-      <c r="F72" s="24"/>
-      <c r="G72" s="24"/>
-    </row>
-    <row r="73" spans="1:7" ht="15.75">
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
+    </row>
+    <row r="73" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>94</v>
       </c>
@@ -2380,10 +2381,10 @@
       <c r="E73" t="s">
         <v>107</v>
       </c>
-      <c r="F73" s="24"/>
-      <c r="G73" s="24"/>
-    </row>
-    <row r="74" spans="1:7" ht="15.75">
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+    </row>
+    <row r="74" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>94</v>
       </c>
@@ -2396,10 +2397,10 @@
       <c r="E74" t="s">
         <v>107</v>
       </c>
-      <c r="F74" s="24"/>
-      <c r="G74" s="24"/>
-    </row>
-    <row r="75" spans="1:7" ht="15.75">
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+    </row>
+    <row r="75" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>94</v>
       </c>
@@ -2412,10 +2413,10 @@
       <c r="E75" t="s">
         <v>107</v>
       </c>
-      <c r="F75" s="24"/>
-      <c r="G75" s="24"/>
-    </row>
-    <row r="76" spans="1:7" ht="15.75">
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
+    </row>
+    <row r="76" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>94</v>
       </c>
@@ -2428,10 +2429,10 @@
       <c r="E76" t="s">
         <v>107</v>
       </c>
-      <c r="F76" s="24"/>
-      <c r="G76" s="24"/>
-    </row>
-    <row r="77" spans="1:7" ht="15.75">
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+    </row>
+    <row r="77" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>94</v>
       </c>
@@ -2444,10 +2445,10 @@
       <c r="E77" t="s">
         <v>107</v>
       </c>
-      <c r="F77" s="24"/>
-      <c r="G77" s="24"/>
-    </row>
-    <row r="78" spans="1:7" ht="15.75">
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+    </row>
+    <row r="78" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>94</v>
       </c>
@@ -2460,10 +2461,10 @@
       <c r="E78" t="s">
         <v>107</v>
       </c>
-      <c r="F78" s="24"/>
-      <c r="G78" s="24"/>
-    </row>
-    <row r="79" spans="1:7" ht="15.75">
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
+    </row>
+    <row r="79" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>94</v>
       </c>
@@ -2476,10 +2477,10 @@
       <c r="E79" t="s">
         <v>107</v>
       </c>
-      <c r="F79" s="24"/>
-      <c r="G79" s="24"/>
-    </row>
-    <row r="80" spans="1:7" ht="15.75">
+      <c r="F79" s="22"/>
+      <c r="G79" s="22"/>
+    </row>
+    <row r="80" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>94</v>
       </c>
@@ -2492,182 +2493,212 @@
       <c r="E80" t="s">
         <v>107</v>
       </c>
-      <c r="F80" s="24"/>
-      <c r="G80" s="24"/>
-    </row>
-    <row r="81" spans="1:7" ht="15.75">
+      <c r="F80" s="22"/>
+      <c r="G80" s="22"/>
+    </row>
+    <row r="81" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>94</v>
       </c>
       <c r="B81" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C81" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E81" t="s">
         <v>108</v>
       </c>
-      <c r="F81" s="24"/>
-      <c r="G81" s="24"/>
-    </row>
-    <row r="82" spans="1:7" ht="15.75">
+      <c r="F81" s="22"/>
+      <c r="G81" s="22"/>
+    </row>
+    <row r="82" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>94</v>
       </c>
       <c r="B82" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C82" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E82" t="s">
         <v>108</v>
       </c>
-      <c r="F82" s="24"/>
-      <c r="G82" s="24"/>
-    </row>
-    <row r="83" spans="1:7" ht="15.75">
+      <c r="F82" s="22"/>
+      <c r="G82" s="22"/>
+    </row>
+    <row r="83" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>94</v>
       </c>
       <c r="B83" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C83" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E83" t="s">
         <v>108</v>
       </c>
-      <c r="F83" s="24"/>
-      <c r="G83" s="24"/>
-    </row>
-    <row r="84" spans="1:7" ht="15.75">
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
+    </row>
+    <row r="84" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>94</v>
       </c>
       <c r="B84" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C84" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E84" t="s">
         <v>108</v>
       </c>
-      <c r="F84" s="24"/>
-      <c r="G84" s="24"/>
-    </row>
-    <row r="85" spans="1:7" ht="15.75">
+      <c r="F84" s="22"/>
+      <c r="G84" s="22"/>
+    </row>
+    <row r="85" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>94</v>
       </c>
       <c r="B85" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C85" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E85" t="s">
         <v>108</v>
       </c>
-      <c r="F85" s="24"/>
-      <c r="G85" s="24"/>
-    </row>
-    <row r="86" spans="1:7" ht="15.75">
+      <c r="F85" s="22"/>
+      <c r="G85" s="22"/>
+    </row>
+    <row r="86" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>94</v>
       </c>
       <c r="B86" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="C86" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="E86" t="s">
         <v>108</v>
       </c>
-      <c r="F86" s="24"/>
-      <c r="G86" s="24"/>
-    </row>
-    <row r="87" spans="1:7" ht="15.75">
+      <c r="F86" s="22"/>
+      <c r="G86" s="22"/>
+    </row>
+    <row r="87" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>94</v>
       </c>
       <c r="B87" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C87" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E87" t="s">
         <v>108</v>
       </c>
-      <c r="F87" s="24"/>
-      <c r="G87" s="24"/>
-    </row>
-    <row r="88" spans="1:7" ht="15.75">
-      <c r="F88" s="22"/>
-      <c r="G88" s="22"/>
-    </row>
-    <row r="89" spans="1:7" ht="15.75">
-      <c r="F89" s="22"/>
-      <c r="G89" s="22"/>
-    </row>
-    <row r="90" spans="1:7" ht="15.75">
-      <c r="F90" s="22"/>
-      <c r="G90" s="22"/>
-    </row>
-    <row r="91" spans="1:7" ht="15.75">
+      <c r="F87" s="22"/>
+      <c r="G87" s="22"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>94</v>
+      </c>
+      <c r="B88" t="s">
+        <v>165</v>
+      </c>
+      <c r="C88" t="s">
+        <v>165</v>
+      </c>
+      <c r="E88" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>94</v>
+      </c>
+      <c r="B89" t="s">
+        <v>166</v>
+      </c>
+      <c r="C89" t="s">
+        <v>166</v>
+      </c>
+      <c r="E89" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>94</v>
+      </c>
+      <c r="B90" t="s">
+        <v>108</v>
+      </c>
+      <c r="C90" t="s">
+        <v>108</v>
+      </c>
+      <c r="E90" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F91" s="22"/>
       <c r="G91" s="22"/>
     </row>
-    <row r="92" spans="1:7" ht="15.75">
+    <row r="92" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F92" s="22"/>
       <c r="G92" s="22"/>
     </row>
-    <row r="93" spans="1:7" ht="15.75">
+    <row r="93" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F93" s="22"/>
       <c r="G93" s="22"/>
     </row>
-    <row r="94" spans="1:7" ht="15.75">
+    <row r="94" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F94" s="22"/>
       <c r="G94" s="22"/>
     </row>
-    <row r="95" spans="1:7" ht="15.75">
+    <row r="95" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F95" s="22"/>
       <c r="G95" s="22"/>
     </row>
-    <row r="96" spans="1:7" ht="15.75">
+    <row r="96" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F96" s="22"/>
       <c r="G96" s="22"/>
     </row>
-    <row r="97" spans="6:7" ht="15.75">
+    <row r="97" spans="6:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F97" s="22"/>
       <c r="G97" s="22"/>
     </row>
-    <row r="98" spans="6:7" ht="15.75">
+    <row r="98" spans="6:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F98" s="22"/>
       <c r="G98" s="22"/>
     </row>
-    <row r="99" spans="6:7" ht="15.75">
+    <row r="99" spans="6:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F99" s="22"/>
       <c r="G99" s="22"/>
     </row>
-    <row r="100" spans="6:7" ht="15.75">
+    <row r="100" spans="6:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F100" s="22"/>
       <c r="G100" s="22"/>
     </row>
-    <row r="101" spans="6:7" ht="15.75">
+    <row r="101" spans="6:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F101" s="22"/>
       <c r="G101" s="22"/>
     </row>
-    <row r="102" spans="6:7" ht="15.75">
+    <row r="102" spans="6:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F102" s="22"/>
       <c r="G102" s="22"/>
     </row>
-    <row r="103" spans="6:7" ht="15.75">
+    <row r="103" spans="6:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F103" s="22"/>
       <c r="G103" s="22"/>
     </row>
@@ -2681,19 +2712,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="64.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.42578125" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" style="18" bestFit="1"/>
     <col min="4" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>95</v>
       </c>
@@ -2707,12 +2738,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75">
-      <c r="A2" s="25" t="s">
-        <v>165</v>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>167</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>99</v>
